--- a/biology/Zoologie/Blattella/Blattella.xlsx
+++ b/biology/Zoologie/Blattella/Blattella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blattella est un genre de blattes de la famille des Blattellidae (synonyme: Ectobiidae) appartenant à l'ordre des Blattodea. Ce genre comprend certaines espèces considérées comme ravageuses et qui sont retrouvées à l'intérieur des habitations. La blatte germanique (Blattella germanica) est considérée comme la plus nuisible d'entre elles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mai 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mai 2020) :
 Blattella aegrota (Gerstaecker, 1883)
 Blattella armata (Princis, 1963)
 Blattella asahinai Mizukubo, 1981
@@ -567,7 +581,7 @@
 Blattella vaga Hebard, 1935
 Blattella vrijdaghi (Hanitsch, 1950)
 Blattella whartoni L.M.Roth, 1985
-Selon Grandcolas[2] :
+Selon Grandcolas :
 Blattella aegrota (Gerstaecker, 1883)
 Blattella armata (Princis, 1963)
 Blattella asahinai Mizukubo, 1981
@@ -648,7 +662,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caudell, 1903 : Notes on the nomenclature of Blattidae. Proceedings of the Entomological Society of Washington, vol. 5, p. 232–234.</t>
         </is>
